--- a/src/main/resources/data/Battle - Ultra.xlsx
+++ b/src/main/resources/data/Battle - Ultra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Jonathan\Jogos\Pokemon GO\2 - Ultra League\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612C74C-F887-4C53-A611-A047882FF0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6EBDE7-F399-40C2-ACAB-062F85403460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="122">
   <si>
     <t>Lead</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>ferrothorn</t>
+  </si>
+  <si>
+    <t>slowking</t>
   </si>
 </sst>
 </file>
@@ -818,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C90" sqref="A2:C90"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,6 +2907,553 @@
       </c>
       <c r="C191" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2928,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F3C74-44B5-471F-AE13-9C8CA1826F77}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,28 +3510,28 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,24 +3540,24 @@
       </c>
       <c r="B4" s="2">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,11 +3566,11 @@
       </c>
       <c r="B6" s="2">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,11 +3579,11 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,115 +3592,115 @@
       </c>
       <c r="B8" s="2">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3168,7 +3718,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2">
         <f>COUNTIF(History!A:C,A18)</f>
@@ -3181,98 +3731,98 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <f>COUNTIF(History!A:A,A19)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <f>COUNTIF(History!A:A,A22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2">
         <f>COUNTIF(History!A:C,A26)</f>
@@ -3280,29 +3830,29 @@
       </c>
       <c r="C26" s="2">
         <f>COUNTIF(History!A:A,A26)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <f>COUNTIF(History!A:A,A27)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <f>COUNTIF(History!A:A,A28)</f>
@@ -3311,11 +3861,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <f>COUNTIF(History!A:A,A29)</f>
@@ -3324,11 +3874,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
         <f>COUNTIF(History!A:A,A30)</f>
@@ -3337,11 +3887,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2">
         <f>COUNTIF(History!A:C,A31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2">
         <f>COUNTIF(History!A:A,A31)</f>
@@ -3350,33 +3900,33 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <f>COUNTIF(History!A:C,A32)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
         <f>COUNTIF(History!A:A,A32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2">
         <f>COUNTIF(History!A:C,A33)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
         <f>COUNTIF(History!A:A,A33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -3384,12 +3934,12 @@
       </c>
       <c r="C34" s="2">
         <f>COUNTIF(History!A:A,A34)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -3402,11 +3952,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(History!A:C,A36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(History!A:A,A36)</f>
@@ -3415,20 +3965,20 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2">
         <f>COUNTIF(History!A:A,A37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <f>COUNTIF(History!A:C,A38)</f>
@@ -3441,7 +3991,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -3454,11 +4004,11 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
         <f>COUNTIF(History!A:C,A40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2">
         <f>COUNTIF(History!A:A,A40)</f>
@@ -3467,7 +4017,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -3480,7 +4030,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -3493,50 +4043,50 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2">
         <f>COUNTIF(History!A:C,A43)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2">
         <f>COUNTIF(History!A:A,A43)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2">
         <f>COUNTIF(History!A:C,A44)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2">
         <f>COUNTIF(History!A:A,A44)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2">
         <f>COUNTIF(History!A:C,A45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2">
         <f>COUNTIF(History!A:A,A45)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2">
         <f>COUNTIF(History!A:C,A46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2">
         <f>COUNTIF(History!A:A,A46)</f>
@@ -3545,7 +4095,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -3627,7 +4177,7 @@
       </c>
       <c r="B53" s="2">
         <f>COUNTIF(History!A:C,A53)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2">
         <f>COUNTIF(History!A:A,A53)</f>
@@ -3705,7 +4255,7 @@
       </c>
       <c r="B59" s="2">
         <f>COUNTIF(History!A:C,A59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2">
         <f>COUNTIF(History!A:A,A59)</f>
@@ -3835,7 +4385,7 @@
       </c>
       <c r="B69" s="2">
         <f>COUNTIF(History!A:C,A69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2">
         <f>COUNTIF(History!A:A,A69)</f>
@@ -4401,17 +4951,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="B113" s="2">
         <f>COUNTIF(History!A:C,A113)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="2">
         <f>COUNTIF(History!A:A,A113)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <f>COUNTIF(History!A:C,A114)</f>
         <v>0</v>
@@ -4421,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <f>COUNTIF(History!A:C,A115)</f>
         <v>0</v>
@@ -4431,43 +4984,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <f>COUNTIF(History!A:C,A116)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <f>COUNTIF(History!A:C,A117)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <f>COUNTIF(History!A:C,A118)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <f>COUNTIF(History!A:C,A119)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <f>COUNTIF(History!A:C,A120)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <f>COUNTIF(History!A:C,A121)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
         <f>COUNTIF(History!A:C,A122)</f>
         <v>0</v>
@@ -4476,7 +5029,7 @@
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{B7BFFF1C-AC35-4424-B8F4-04250131A25E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C122">
-      <sortCondition descending="1" ref="B1"/>
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4486,16 +5039,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3ACB55-5D50-44AC-A914-44229FBE70D8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="130.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="134.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4511,101 +5064,111 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>giratina_altered:16</v>
+        <v>swampert:27</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>giratina_altered:98</v>
+        <v>swampert:87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>giratina_altered:16,swampert:20</v>
+        <v>swampert:27,giratina_altered:23</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>giratina_altered:98,swampert:67</v>
+        <v>swampert:87,giratina_altered:120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17</v>
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4)</f>
-        <v>giratina_altered:98,swampert:67,venusaur:47</v>
+        <v>swampert:87,giratina_altered:120,venusaur:58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15,togekiss:9</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16</v>
       </c>
       <c r="B5" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5)</f>
-        <v>giratina_altered:98,swampert:67,venusaur:47,togekiss:32</v>
+        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15,togekiss:9,poliwrath:14</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15</v>
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6)</f>
-        <v>giratina_altered:98,swampert:67,venusaur:47,togekiss:32,poliwrath:26</v>
+        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15,togekiss:9,poliwrath:14,snorlax:10</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13</v>
       </c>
       <c r="B7" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>giratina_altered:98,swampert:67,venusaur:47,togekiss:32,poliwrath:26,snorlax:25</v>
+        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15,togekiss:9,poliwrath:14,snorlax:10,muk_alolan:9</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13</v>
       </c>
       <c r="B8" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!A3, ",",Totals!B4, ":", Totals!A4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>giratina_altered:98,swampert:swampert,47:venusaur,togekiss:32,poliwrath:26,snorlax:25,muk_alolan:25</v>
+        <v>swampert:87,giratina_altered:giratina_altered,58:venusaur,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15,togekiss:9,poliwrath:14,snorlax:10,muk_alolan:9,clefable:7</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13</v>
       </c>
       <c r="B9" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9)</f>
-        <v>giratina_altered:98,swampert:67,venusaur:47,togekiss:32,poliwrath:26,snorlax:25,muk_alolan:25,clefable:25</v>
+        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15,togekiss:9,poliwrath:14,snorlax:10,muk_alolan:9,clefable:7,registeel:6</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13,togekiss:9</v>
       </c>
       <c r="B10" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9, ",",Totals!A10, ":", Totals!B10)</f>
-        <v>giratina_altered:98,swampert:67,venusaur:47,togekiss:32,poliwrath:26,snorlax:25,muk_alolan:25,clefable:25,registeel:20</v>
+        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28,togekiss:34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9, ",",Totals!A10, ":", Totals!C10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>giratina_altered:16,swampert:20,venusaur:15,togekiss:9,poliwrath:14,snorlax:10,muk_alolan:9,clefable:7,registeel:6,charizard:4</v>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13,togekiss:9,clefable:8</v>
       </c>
       <c r="B11" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9, ",",Totals!A10, ":", Totals!B10, ",",Totals!A11, ":", Totals!B11)</f>
-        <v>giratina_altered:98,swampert:67,venusaur:47,togekiss:32,poliwrath:26,snorlax:25,muk_alolan:25,clefable:25,registeel:20,charizard:20</v>
+        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28,togekiss:34,clefable:29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9, ",",Totals!A10, ":", Totals!C10, ",",Totals!A11, ":", Totals!C11, ",",Totals!A12, ":", Totals!C12)</f>
+        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13,togekiss:9,clefable:8,registeel:7</v>
+      </c>
+      <c r="B12" t="str">
+        <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9, ",",Totals!A10, ":", Totals!B10, ",",Totals!A11, ":", Totals!B11, ",",Totals!A12, ":", Totals!B12)</f>
+        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28,togekiss:34,clefable:29,registeel:24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Battle - Ultra.xlsx
+++ b/src/main/resources/data/Battle - Ultra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6EBDE7-F399-40C2-ACAB-062F85403460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63CC118-57F7-49F2-89A5-98870B95EB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -506,7 +506,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C101" sqref="A2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F3C74-44B5-471F-AE13-9C8CA1826F77}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,28 +3509,28 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,50 +3548,50 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <f>COUNTIF(History!A:A,A8)</f>
@@ -3601,41 +3600,41 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3653,37 +3652,37 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <f>COUNTIF(History!A:A,A15)</f>
@@ -3692,7 +3691,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2">
         <f>COUNTIF(History!A:C,A16)</f>
@@ -3700,38 +3699,38 @@
       </c>
       <c r="C16" s="2">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <f>COUNTIF(History!A:C,A19)</f>
@@ -3744,11 +3743,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <f>COUNTIF(History!A:A,A20)</f>
@@ -3757,11 +3756,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(History!A:A,A21)</f>
@@ -3770,11 +3769,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <f>COUNTIF(History!A:A,A22)</f>
@@ -3783,33 +3782,33 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2">
         <f>COUNTIF(History!A:C,A25)</f>
@@ -3817,29 +3816,29 @@
       </c>
       <c r="C25" s="2">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
         <f>COUNTIF(History!A:A,A26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B27" s="2">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <f>COUNTIF(History!A:A,A27)</f>
@@ -3848,24 +3847,24 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
         <f>COUNTIF(History!A:A,A28)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <f>COUNTIF(History!A:A,A29)</f>
@@ -3874,59 +3873,59 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <f>COUNTIF(History!A:A,A30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B31" s="2">
         <f>COUNTIF(History!A:C,A31)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
         <f>COUNTIF(History!A:A,A31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2">
         <f>COUNTIF(History!A:C,A32)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2">
         <f>COUNTIF(History!A:A,A32)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2">
         <f>COUNTIF(History!A:C,A33)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2">
         <f>COUNTIF(History!A:A,A33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -3934,12 +3933,12 @@
       </c>
       <c r="C34" s="2">
         <f>COUNTIF(History!A:A,A34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -3947,16 +3946,16 @@
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(History!A:A,A35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(History!A:C,A36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(History!A:A,A36)</f>
@@ -3965,11 +3964,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
         <f>COUNTIF(History!A:A,A37)</f>
@@ -3978,11 +3977,11 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <f>COUNTIF(History!A:C,A38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2">
         <f>COUNTIF(History!A:A,A38)</f>
@@ -3991,20 +3990,20 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2">
         <f>COUNTIF(History!A:C,A39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2">
         <f>COUNTIF(History!A:A,A39)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -4012,25 +4011,25 @@
       </c>
       <c r="C40" s="2">
         <f>COUNTIF(History!A:A,A40)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
         <f>COUNTIF(History!A:C,A41)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2">
         <f>COUNTIF(History!A:A,A41)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -4043,59 +4042,59 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2">
         <f>COUNTIF(History!A:C,A43)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
         <f>COUNTIF(History!A:A,A43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2">
         <f>COUNTIF(History!A:C,A44)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <f>COUNTIF(History!A:A,A44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2">
         <f>COUNTIF(History!A:C,A45)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2">
         <f>COUNTIF(History!A:A,A45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2">
         <f>COUNTIF(History!A:C,A46)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <f>COUNTIF(History!A:A,A46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -4103,12 +4102,12 @@
       </c>
       <c r="C47" s="2">
         <f>COUNTIF(History!A:A,A47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2">
         <f>COUNTIF(History!A:C,A48)</f>
@@ -4121,7 +4120,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2">
         <f>COUNTIF(History!A:C,A49)</f>
@@ -4134,7 +4133,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -4147,7 +4146,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2">
         <f>COUNTIF(History!A:C,A51)</f>
@@ -4160,7 +4159,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -4173,11 +4172,11 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B53" s="2">
         <f>COUNTIF(History!A:C,A53)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2">
         <f>COUNTIF(History!A:A,A53)</f>
@@ -4199,11 +4198,11 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
         <f>COUNTIF(History!A:C,A55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2">
         <f>COUNTIF(History!A:A,A55)</f>
@@ -4212,11 +4211,11 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B56" s="2">
         <f>COUNTIF(History!A:C,A56)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2">
         <f>COUNTIF(History!A:A,A56)</f>
@@ -4225,11 +4224,11 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2">
         <f>COUNTIF(History!A:C,A57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2">
         <f>COUNTIF(History!A:A,A57)</f>
@@ -4238,7 +4237,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2">
         <f>COUNTIF(History!A:C,A58)</f>
@@ -4251,11 +4250,11 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B59" s="2">
         <f>COUNTIF(History!A:C,A59)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="2">
         <f>COUNTIF(History!A:A,A59)</f>
@@ -4264,7 +4263,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B60" s="2">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -4277,7 +4276,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B61" s="2">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -4290,7 +4289,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2">
         <f>COUNTIF(History!A:C,A62)</f>
@@ -4303,7 +4302,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
         <f>COUNTIF(History!A:C,A63)</f>
@@ -4316,7 +4315,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B64" s="2">
         <f>COUNTIF(History!A:C,A64)</f>
@@ -4329,7 +4328,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B65" s="2">
         <f>COUNTIF(History!A:C,A65)</f>
@@ -4342,7 +4341,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2">
         <f>COUNTIF(History!A:C,A66)</f>
@@ -4355,7 +4354,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B67" s="2">
         <f>COUNTIF(History!A:C,A67)</f>
@@ -4368,7 +4367,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B68" s="2">
         <f>COUNTIF(History!A:C,A68)</f>
@@ -4381,11 +4380,11 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B69" s="2">
         <f>COUNTIF(History!A:C,A69)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="2">
         <f>COUNTIF(History!A:A,A69)</f>
@@ -4394,7 +4393,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B70" s="2">
         <f>COUNTIF(History!A:C,A70)</f>
@@ -4407,7 +4406,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2">
         <f>COUNTIF(History!A:C,A71)</f>
@@ -4420,7 +4419,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="2">
         <f>COUNTIF(History!A:C,A72)</f>
@@ -4433,7 +4432,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B73" s="2">
         <f>COUNTIF(History!A:C,A73)</f>
@@ -4446,7 +4445,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2">
         <f>COUNTIF(History!A:C,A74)</f>
@@ -4459,7 +4458,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B75" s="2">
         <f>COUNTIF(History!A:C,A75)</f>
@@ -4472,7 +4471,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2">
         <f>COUNTIF(History!A:C,A76)</f>
@@ -4485,7 +4484,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2">
         <f>COUNTIF(History!A:C,A77)</f>
@@ -4498,7 +4497,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2">
         <f>COUNTIF(History!A:C,A78)</f>
@@ -4511,7 +4510,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <f>COUNTIF(History!A:C,A79)</f>
@@ -4524,7 +4523,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <f>COUNTIF(History!A:C,A80)</f>
@@ -4537,7 +4536,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B81" s="2">
         <f>COUNTIF(History!A:C,A81)</f>
@@ -4550,7 +4549,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <f>COUNTIF(History!A:C,A82)</f>
@@ -4563,7 +4562,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <f>COUNTIF(History!A:C,A83)</f>
@@ -4576,7 +4575,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <f>COUNTIF(History!A:C,A84)</f>
@@ -4589,7 +4588,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <f>COUNTIF(History!A:C,A85)</f>
@@ -4602,7 +4601,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <f>COUNTIF(History!A:C,A86)</f>
@@ -4615,7 +4614,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <f>COUNTIF(History!A:C,A87)</f>
@@ -4628,7 +4627,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <f>COUNTIF(History!A:C,A88)</f>
@@ -4641,7 +4640,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B89" s="2">
         <f>COUNTIF(History!A:C,A89)</f>
@@ -4654,7 +4653,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <f>COUNTIF(History!A:C,A90)</f>
@@ -4667,7 +4666,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
         <f>COUNTIF(History!A:C,A91)</f>
@@ -4680,7 +4679,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <f>COUNTIF(History!A:C,A92)</f>
@@ -4693,7 +4692,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B93" s="2">
         <f>COUNTIF(History!A:C,A93)</f>
@@ -4706,7 +4705,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B94" s="2">
         <f>COUNTIF(History!A:C,A94)</f>
@@ -4719,7 +4718,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B95" s="2">
         <f>COUNTIF(History!A:C,A95)</f>
@@ -4732,7 +4731,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2">
         <f>COUNTIF(History!A:C,A96)</f>
@@ -4745,7 +4744,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2">
         <f>COUNTIF(History!A:C,A97)</f>
@@ -4758,7 +4757,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2">
         <f>COUNTIF(History!A:C,A98)</f>
@@ -4771,7 +4770,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2">
         <f>COUNTIF(History!A:C,A99)</f>
@@ -4784,7 +4783,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B100" s="2">
         <f>COUNTIF(History!A:C,A100)</f>
@@ -4797,7 +4796,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B101" s="2">
         <f>COUNTIF(History!A:C,A101)</f>
@@ -4810,7 +4809,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B102" s="2">
         <f>COUNTIF(History!A:C,A102)</f>
@@ -4823,7 +4822,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2">
         <f>COUNTIF(History!A:C,A103)</f>
@@ -4836,7 +4835,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2">
         <f>COUNTIF(History!A:C,A104)</f>
@@ -4849,7 +4848,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2">
         <f>COUNTIF(History!A:C,A105)</f>
@@ -4862,7 +4861,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2">
         <f>COUNTIF(History!A:C,A106)</f>
@@ -4875,7 +4874,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2">
         <f>COUNTIF(History!A:C,A107)</f>
@@ -4888,7 +4887,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2">
         <f>COUNTIF(History!A:C,A108)</f>
@@ -4901,7 +4900,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2">
         <f>COUNTIF(History!A:C,A109)</f>
@@ -4914,7 +4913,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2">
         <f>COUNTIF(History!A:C,A110)</f>
@@ -4926,21 +4925,21 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>114</v>
+      <c r="A111" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B111" s="2">
-        <f>COUNTIF(History!A:C,#REF!)</f>
+        <f>COUNTIF(History!A:C,A111)</f>
         <v>0</v>
       </c>
       <c r="C111" s="2">
-        <f>COUNTIF(History!A:A,#REF!)</f>
+        <f>COUNTIF(History!A:A,A111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2">
         <f>COUNTIF(History!A:C,#REF!)</f>
@@ -4952,15 +4951,15 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>121</v>
+      <c r="A113" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B113" s="2">
-        <f>COUNTIF(History!A:C,A113)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A:C,#REF!)</f>
+        <v>0</v>
       </c>
       <c r="C113" s="2">
-        <f>COUNTIF(History!A:A,A113)</f>
+        <f>COUNTIF(History!A:A,#REF!)</f>
         <v>0</v>
       </c>
     </row>
@@ -5029,7 +5028,7 @@
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{B7BFFF1C-AC35-4424-B8F4-04250131A25E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C122">
-      <sortCondition descending="1" ref="C1"/>
+      <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5042,7 +5041,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,111 +5063,111 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>swampert:27</v>
+        <v>giratina_altered:23</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>swampert:87</v>
+        <v>giratina_altered:120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>swampert:27,giratina_altered:23</v>
+        <v>giratina_altered:23,swampert:27</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>swampert:87,giratina_altered:120</v>
+        <v>giratina_altered:120,swampert:87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17</v>
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15</v>
       </c>
       <c r="B5" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58,poliwrath:37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15,muk_alolan:13</v>
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58,poliwrath:37,muk_alolan:36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15,muk_alolan:13,togekiss:9</v>
       </c>
       <c r="B7" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58,poliwrath:37,muk_alolan:36,togekiss:34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15,muk_alolan:13,togekiss:9,snorlax:13</v>
       </c>
       <c r="B8" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!A3, ",",Totals!B4, ":", Totals!A4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>swampert:87,giratina_altered:giratina_altered,58:venusaur,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36</v>
+        <v>giratina_altered:120,swampert:swampert,58:venusaur,poliwrath:37,muk_alolan:36,togekiss:34,snorlax:29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15,muk_alolan:13,togekiss:9,snorlax:13,clefable:8</v>
       </c>
       <c r="B9" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58,poliwrath:37,muk_alolan:36,togekiss:34,snorlax:29,clefable:29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13,togekiss:9</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15,muk_alolan:13,togekiss:9,snorlax:13,clefable:8,melmetal:13</v>
       </c>
       <c r="B10" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9, ",",Totals!A10, ":", Totals!B10)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28,togekiss:34</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58,poliwrath:37,muk_alolan:36,togekiss:34,snorlax:29,clefable:29,melmetal:28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9, ",",Totals!A10, ":", Totals!C10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13,togekiss:9,clefable:8</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15,muk_alolan:13,togekiss:9,snorlax:13,clefable:8,melmetal:13,charizard:6</v>
       </c>
       <c r="B11" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9, ",",Totals!A10, ":", Totals!B10, ",",Totals!A11, ":", Totals!B11)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28,togekiss:34,clefable:29</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58,poliwrath:37,muk_alolan:36,togekiss:34,snorlax:29,clefable:29,melmetal:28,charizard:26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2, ",",Totals!A3, ":", Totals!C3, ",",Totals!A4, ":", Totals!C4, ",",Totals!A5, ":", Totals!C5, ",",Totals!A6, ":", Totals!C6, ",",Totals!A7, ":", Totals!C7, ",",Totals!A8, ":", Totals!C8, ",",Totals!A9, ":", Totals!C9, ",",Totals!A10, ":", Totals!C10, ",",Totals!A11, ":", Totals!C11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>swampert:27,giratina_altered:23,venusaur:17,articuno:16,poliwrath:15,snorlax:13,muk_alolan:13,melmetal:13,togekiss:9,clefable:8,registeel:7</v>
+        <v>giratina_altered:23,swampert:27,venusaur:17,poliwrath:15,muk_alolan:13,togekiss:9,snorlax:13,clefable:8,melmetal:13,charizard:6,registeel:7</v>
       </c>
       <c r="B12" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2, ",",Totals!A3, ":", Totals!B3, ",",Totals!A4, ":", Totals!B4, ",",Totals!A5, ":", Totals!B5, ",",Totals!A6, ":", Totals!B6, ",",Totals!A7, ":", Totals!B7, ",",Totals!A8, ":", Totals!B8, ",",Totals!A9, ":", Totals!B9, ",",Totals!A10, ":", Totals!B10, ",",Totals!A11, ":", Totals!B11, ",",Totals!A12, ":", Totals!B12)</f>
-        <v>swampert:87,giratina_altered:120,venusaur:58,articuno:21,poliwrath:37,snorlax:29,muk_alolan:36,melmetal:28,togekiss:34,clefable:29,registeel:24</v>
+        <v>giratina_altered:120,swampert:87,venusaur:58,poliwrath:37,muk_alolan:36,togekiss:34,snorlax:29,clefable:29,melmetal:28,charizard:26,registeel:24</v>
       </c>
     </row>
   </sheetData>
